--- a/biology/Zoologie/Ancistrus_dubius/Ancistrus_dubius.xlsx
+++ b/biology/Zoologie/Ancistrus_dubius/Ancistrus_dubius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancistrus dubius est une espèce de poissons-chats de la famille des Loricariidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce poisson se rencontre en Bolivie, au Brésil, en Colombie et au Pérou[1]. Il est présent dans le bassin de l'Amazone ainsi que dans les rio Parana et rio Paraguay[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce poisson se rencontre en Bolivie, au Brésil, en Colombie et au Pérou. Il est présent dans le bassin de l'Amazone ainsi que dans les rio Parana et rio Paraguay.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancistrus dubius mesure jusqu'à 126 mm de longueur, queue non comprise[2]. Cette espèce est capable de respirer à l'air libre[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancistrus dubius mesure jusqu'à 126 mm de longueur, queue non comprise. Cette espèce est capable de respirer à l'air libre.
 </t>
         </is>
       </c>
@@ -573,16 +589,87 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Ancistrus dubius Eigenmann &amp; Eigenmann, 1889[3].
-Cette espèce a été initialement décrite comme étant une sous-espèce de Ancistrus cirrhosus, sous le taxon Ancistrus cirrhosus dubius Eigenmann &amp; Eigenmann, 1889[3],[4].
-Ancistrus dubius a pour synonyme[3] :
-Ancistrus cirrhosus dubius Eigenmann &amp; Eigenmann, 1889
-Étymologie
-Son épithète spécifique, du latin dubius, « douteux, incertain », fait référence à l'incertitude des auteurs qui ont classé ce poisson comme une sous-espèce de Ancistrus cirrhosus mais dont la coloration différait[5].
-Publication originale
-(en) Carl H. Eigenmann et Rosa Smith Eigenmann, « Preliminary notes on South American Nematognathi, II », Proceedings of the California Academy of Science, San Francisco, Inconnu, vol. 2,‎ 1889, p. 28–56 (ISSN 0068-547X, OCLC 2255608, DOI 10.5962/BHL.PART.3477, lire en ligne)</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Ancistrus dubius Eigenmann &amp; Eigenmann, 1889.
+Cette espèce a été initialement décrite comme étant une sous-espèce de Ancistrus cirrhosus, sous le taxon Ancistrus cirrhosus dubius Eigenmann &amp; Eigenmann, 1889,.
+Ancistrus dubius a pour synonyme :
+Ancistrus cirrhosus dubius Eigenmann &amp; Eigenmann, 1889</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ancistrus_dubius</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancistrus_dubius</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin dubius, « douteux, incertain », fait référence à l'incertitude des auteurs qui ont classé ce poisson comme une sous-espèce de Ancistrus cirrhosus mais dont la coloration différait.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ancistrus_dubius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancistrus_dubius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) Carl H. Eigenmann et Rosa Smith Eigenmann, « Preliminary notes on South American Nematognathi, II », Proceedings of the California Academy of Science, San Francisco, Inconnu, vol. 2,‎ 1889, p. 28–56 (ISSN 0068-547X, OCLC 2255608, DOI 10.5962/BHL.PART.3477, lire en ligne)</t>
         </is>
       </c>
     </row>
